--- a/housing.xlsx
+++ b/housing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepak\Downloads\project_realRealEstatePricePredictor\codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92051D7-27D1-452C-88C2-9A49DE236041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A72312-6BDC-4C51-AAED-3A142FB0D0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3AC94968-0E8C-414F-8255-EE5FD7CBE7C4}"/>
   </bookViews>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1043393F-3B30-48A5-AD94-DBFCD314ED49}">
   <dimension ref="A1:N507"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="J247" sqref="J247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,9 +1199,6 @@
       <c r="E18">
         <v>0.53800000000000003</v>
       </c>
-      <c r="F18">
-        <v>5.9349999999999996</v>
-      </c>
       <c r="G18">
         <v>29.3</v>
       </c>
@@ -1507,9 +1504,6 @@
       <c r="E25">
         <v>0.53800000000000003</v>
       </c>
-      <c r="F25">
-        <v>5.8129999999999997</v>
-      </c>
       <c r="G25">
         <v>100</v>
       </c>
@@ -3927,9 +3921,6 @@
       <c r="E80">
         <v>0.437</v>
       </c>
-      <c r="F80">
-        <v>6.2320000000000002</v>
-      </c>
       <c r="G80">
         <v>53.7</v>
       </c>
@@ -6171,9 +6162,6 @@
       <c r="E131">
         <v>0.624</v>
       </c>
-      <c r="F131">
-        <v>5.6369999999999996</v>
-      </c>
       <c r="G131">
         <v>94.7</v>
       </c>
@@ -7975,9 +7963,6 @@
       <c r="E172">
         <v>0.60499999999999998</v>
       </c>
-      <c r="F172">
-        <v>5.875</v>
-      </c>
       <c r="G172">
         <v>94.6</v>
       </c>
@@ -10439,9 +10424,6 @@
       <c r="E228">
         <v>0.504</v>
       </c>
-      <c r="F228">
-        <v>8.0399999999999991</v>
-      </c>
       <c r="G228">
         <v>86.5</v>
       </c>
@@ -11494,9 +11476,6 @@
       </c>
       <c r="E252">
         <v>0.43099999999999999</v>
-      </c>
-      <c r="F252">
-        <v>6.4870000000000001</v>
       </c>
       <c r="G252">
         <v>13</v>
